--- a/PLANTILLA DE TEMA 7.xlsx
+++ b/PLANTILLA DE TEMA 7.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2DAW\Empressa Iniciativa DAW Diurno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C91AC23-CD30-4664-856A-830272482B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B5790-16FF-4C1A-852C-D853F02022BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7BF50AED-044D-4458-9C4C-F28CCB8D73B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{7BF50AED-044D-4458-9C4C-F28CCB8D73B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>fijo</t>
   </si>
@@ -49,16 +52,132 @@
   </si>
   <si>
     <t>PV</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALOR </t>
+  </si>
+  <si>
+    <t>DIAS</t>
+  </si>
+  <si>
+    <t>INTERESES</t>
+  </si>
+  <si>
+    <t>COMISION</t>
+  </si>
+  <si>
+    <t>GASTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFECTIVO </t>
+  </si>
+  <si>
+    <t>construcciones</t>
+  </si>
+  <si>
+    <t>Maquinaria</t>
+  </si>
+  <si>
+    <t>mobiliario</t>
+  </si>
+  <si>
+    <t>Ordenadores</t>
+  </si>
+  <si>
+    <t>Terrenos</t>
+  </si>
+  <si>
+    <t>Material diverso para la venta(mercaderías)</t>
+  </si>
+  <si>
+    <t>Utillaje</t>
+  </si>
+  <si>
+    <t>Un coche</t>
+  </si>
+  <si>
+    <t>Programas y aplicaciones informáticas</t>
+  </si>
+  <si>
+    <t>Patentes y marcas</t>
+  </si>
+  <si>
+    <t>ACTIVO NO CORRIENTE</t>
+  </si>
+  <si>
+    <t>Ordenadores para la venta (mercaderías)</t>
+  </si>
+  <si>
+    <t>EXISTENCIAS</t>
+  </si>
+  <si>
+    <t>IVA SOPORTADO</t>
+  </si>
+  <si>
+    <t>Dinero que le deben los clientes por material ya vendido</t>
+  </si>
+  <si>
+    <t>REALIZABLE</t>
+  </si>
+  <si>
+    <t>Dinero en la caja de la empresa para pequeños pagos</t>
+  </si>
+  <si>
+    <t>Dinero en la cuenta bancaria</t>
+  </si>
+  <si>
+    <t>DISPONIBLE</t>
+  </si>
+  <si>
+    <t>ACTIVO CORRIENTE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PATRIMONIO NETO</t>
+  </si>
+  <si>
+    <t>Una Hipoteca a 10 años</t>
+  </si>
+  <si>
+    <t>PASIVO NO CORRIENTE</t>
+  </si>
+  <si>
+    <t>Debe a la Seguridad Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe a su proveedor </t>
+  </si>
+  <si>
+    <t>IVA REPERCUTIDO</t>
+  </si>
+  <si>
+    <t>un préstamo a corto plazo con el banco</t>
+  </si>
+  <si>
+    <t>PASIVO CORRIENTE</t>
+  </si>
+  <si>
+    <t>TOTAL PASIVO Y NETO</t>
+  </si>
+  <si>
+    <t>FONDO DE MANIOBRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +192,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -90,18 +227,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -407,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07255E3-ACC3-43EE-8066-AB73BD5AE507}">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +733,9 @@
         <v>50</v>
       </c>
       <c r="D10" s="1"/>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
@@ -594,4 +845,386 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D3B617-88D8-4A1C-8D1E-16E69AC723C5}">
+  <dimension ref="A2:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="22"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7">
+        <v>23000</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="30">
+        <v>108690</v>
+      </c>
+      <c r="K2" t="str">
+        <f>H2</f>
+        <v>PATRIMONIO NETO</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="K3" s="30">
+        <f>J2</f>
+        <v>108690</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="27"/>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="H4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="44">
+        <v>5600</v>
+      </c>
+      <c r="K4" t="str">
+        <f>H4</f>
+        <v>PASIVO NO CORRIENTE</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="27"/>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4500</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="K5" s="43">
+        <f>J4</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="27"/>
+      <c r="D6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="H6" s="26" t="str">
+        <f>K6</f>
+        <v>PASIVO CORRIENTE</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="46">
+        <v>860</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="27"/>
+      <c r="D7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="17">
+        <v>200</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="27"/>
+      <c r="D8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="19">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="48">
+        <v>15000</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="N8" s="30">
+        <f>F18-K12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="27"/>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="21">
+        <v>250</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="51">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="43">
+        <f>SUM(J6:J9)</f>
+        <v>22360</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="27"/>
+      <c r="D10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="28">
+        <f>SUM(E2:E10)</f>
+        <v>63450</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="32">
+        <v>5000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="26"/>
+      <c r="D12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="34">
+        <v>1600</v>
+      </c>
+      <c r="F12" s="24">
+        <f>SUM(E11:E12)</f>
+        <v>6600</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="30">
+        <f>K3+K5+K9</f>
+        <v>136650</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="26"/>
+      <c r="D13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="36">
+        <v>8000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="26"/>
+      <c r="D14" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="38">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="24">
+        <f>SUM(E13:E14)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="26"/>
+      <c r="D15" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="40">
+        <v>600</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
+      <c r="D16" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="40">
+        <v>56000</v>
+      </c>
+      <c r="F16" s="24">
+        <f>SUM(E15:E16)</f>
+        <v>56600</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="24">
+        <f>F10+F12+F14+F16</f>
+        <v>136650</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="50">
+        <f>(F12+F14+F16)-K9</f>
+        <v>50840</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="H6:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE1E807-1ACA-4904-BB1F-2E0699011FF3}">
+  <dimension ref="D6:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <f>E6*E8*(E7/360)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <f>E6-E12-E10-(E9*E6)</f>
+        <v>2952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>